--- a/211103_FinalProject/DataRank_2021/vendeeglobe_20201108_150000.xlsx
+++ b/211103_FinalProject/DataRank_2021/vendeeglobe_20201108_150000.xlsx
@@ -3972,220 +3972,220 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf xxid="70" numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs>
-    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf xxid="2" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf xxid="3" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf xxid="4" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xxid="5" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xxid="6" numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xxid="7" numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xxid="8" numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xxid="9" numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xxid="10" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xxid="11" numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf xxid="12" numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf xxid="13" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="14" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="15" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="16" numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="17" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="18" numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="19" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="20" numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="21" numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="22" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="23" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="24" numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="25" numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="26" numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="27" numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="28" numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xxid="29" numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="30" numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="31" numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="32" numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="33" numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="34" numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="35" numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="36" numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="37" numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="38" numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="39" numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="40" numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="41" numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="42" numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="43" numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="44" numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="45" numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="46" numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="47" numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="48" numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="49" numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="50" numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="51" numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="52" numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="53" numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="54" numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="55" numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="56" numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="57" numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="58" numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="59" numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="60" numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="61" numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="62" numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="63" numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="64" numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="65" numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xxid="66" numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="67" numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="68" numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="69" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xxid="71" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="72" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="73" numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="74" numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf xxid="75" numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
